--- a/S22/HW3.xlsx
+++ b/S22/HW3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfdeblasio/Google Drive/Classes/CS4364/CS4364-Documents/S22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50F63521-7662-8740-960C-F2F64284F394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2485EF-0148-1848-8D80-39AA91E4AD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{14BB3DF4-EBFA-8B46-9E36-9F90CA8E3CBD}"/>
   </bookViews>
@@ -550,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B77D1F-FF6E-F446-9D13-0645C91B25D4}">
-  <dimension ref="A2:W25"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="37" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,6 +565,23 @@
     <col min="17" max="22" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="2"/>
+    </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2">
@@ -1295,5 +1312,8 @@
     <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F13" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/S22/HW3.xlsx
+++ b/S22/HW3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfdeblasio/Google Drive/Classes/CS4364/CS4364-Documents/S22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2485EF-0148-1848-8D80-39AA91E4AD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC23B9A-8FA3-314A-B93D-CEDA4A4EDA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{14BB3DF4-EBFA-8B46-9E36-9F90CA8E3CBD}"/>
+    <workbookView xWindow="2060" yWindow="1600" windowWidth="46600" windowHeight="27200" xr2:uid="{14BB3DF4-EBFA-8B46-9E36-9F90CA8E3CBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -68,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -197,41 +198,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -552,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B77D1F-FF6E-F446-9D13-0645C91B25D4}">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="37" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="M15" zoomScale="376" zoomScaleNormal="376" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,399 +627,399 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
         <v>0.9</v>
       </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
         <v>1</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>0.9</v>
       </c>
-      <c r="I3" s="6" t="str">
+      <c r="I3" s="5" t="str">
+        <f t="shared" ref="I3:K6" si="0">"-"</f>
+        <v>-</v>
+      </c>
+      <c r="J3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="K3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B4" s="15"/>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="J4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="K4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B5" s="15"/>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="J5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="K5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B6" s="15"/>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="26" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="5" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
-      <c r="J3" s="6" t="str">
+      <c r="G8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
-      <c r="K3" s="6" t="str">
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B9" s="15"/>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="6" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
+      <c r="G9" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="6">
         <v>0.2</v>
       </c>
-      <c r="O3" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B10" s="15"/>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
         <v>0.2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="J10" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
         <v>0.5</v>
       </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="M10" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="6" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B11" s="15"/>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="G11" s="7">
         <v>0.1</v>
       </c>
-      <c r="I4" s="7" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="J4" s="7" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="K4" s="7" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="M4" s="7">
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
         <v>0.3</v>
       </c>
-      <c r="N4" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="J5" s="7" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="K5" s="7" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="J6" s="8" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="K6" s="8" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" ht="26" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="6" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>1</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="7" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
+      <c r="N11" s="7">
         <v>0.5</v>
       </c>
-      <c r="M9" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="7" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="O10" s="7" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="F11" s="8" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="O11" s="8" t="str">
+      <c r="O11" s="7" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
@@ -1027,18 +1028,18 @@
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
@@ -1133,22 +1134,22 @@
     </row>
     <row r="16" spans="1:23" ht="37" x14ac:dyDescent="0.45">
       <c r="P16" s="2"/>
-      <c r="Q16" s="15" t="s">
+      <c r="Q16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="R16" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="S16" s="13" t="s">
+      <c r="R16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="T16" s="13" t="s">
+      <c r="T16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U16" s="13" t="s">
+      <c r="U16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="V16" s="13" t="str">
+      <c r="V16" s="12" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
@@ -1156,111 +1157,111 @@
     </row>
     <row r="17" spans="16:23" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P17" s="2"/>
-      <c r="Q17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="R17" s="12">
+      <c r="Q17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
         <v>2</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="11">
         <v>-1</v>
       </c>
-      <c r="T17" s="12">
+      <c r="T17" s="11">
         <v>-2</v>
       </c>
-      <c r="U17" s="12">
+      <c r="U17" s="11">
         <v>-1</v>
       </c>
-      <c r="V17" s="12">
+      <c r="V17" s="11">
         <v>-3</v>
       </c>
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="16:23" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P18" s="2"/>
-      <c r="Q18" s="14" t="s">
+      <c r="Q18" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="11">
         <v>-1</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18" s="11">
         <v>2</v>
       </c>
-      <c r="T18" s="12">
+      <c r="T18" s="11">
         <v>-2</v>
       </c>
-      <c r="U18" s="12">
+      <c r="U18" s="11">
         <v>-1</v>
       </c>
-      <c r="V18" s="12">
+      <c r="V18" s="11">
         <v>-3</v>
       </c>
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="16:23" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P19" s="2"/>
-      <c r="Q19" s="14" t="s">
+      <c r="Q19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R19" s="12">
+      <c r="R19" s="11">
         <v>-2</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="11">
         <v>-2</v>
       </c>
-      <c r="T19" s="12">
+      <c r="T19" s="11">
         <v>1</v>
       </c>
-      <c r="U19" s="12">
+      <c r="U19" s="11">
         <v>-1</v>
       </c>
-      <c r="V19" s="12">
+      <c r="V19" s="11">
         <v>-3</v>
       </c>
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="16:23" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P20" s="2"/>
-      <c r="Q20" s="14" t="s">
+      <c r="Q20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="11">
         <v>-1</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="11">
         <v>-1</v>
       </c>
-      <c r="T20" s="12">
+      <c r="T20" s="11">
         <v>-1</v>
       </c>
-      <c r="U20" s="12">
+      <c r="U20" s="11">
         <v>3</v>
       </c>
-      <c r="V20" s="12">
+      <c r="V20" s="11">
         <v>-2</v>
       </c>
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="16:23" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P21" s="2"/>
-      <c r="Q21" s="14" t="str">
+      <c r="Q21" s="13" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="11">
         <v>-3</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21" s="11">
         <v>-3</v>
       </c>
-      <c r="T21" s="12">
+      <c r="T21" s="11">
         <v>-3</v>
       </c>
-      <c r="U21" s="12">
-        <v>-3</v>
-      </c>
-      <c r="V21" s="12" t="s">
+      <c r="U21" s="11">
+        <v>-2</v>
+      </c>
+      <c r="V21" s="11" t="s">
         <v>7</v>
       </c>
       <c r="W21" s="2"/>
